--- a/data/recipes/Recipe_template_1.xlsx
+++ b/data/recipes/Recipe_template_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\Downloads\Python basics\Project_V3\Python stuff\Thesis2024\data\recipes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,10 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$523</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="525">
   <si>
     <t>Ingredient</t>
   </si>
@@ -49,6 +52,9 @@
     <t>Bread wheat</t>
   </si>
   <si>
+    <t>cup</t>
+  </si>
+  <si>
     <t>Rye</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>Beer</t>
   </si>
   <si>
+    <t>dl</t>
+  </si>
+  <si>
     <t>Beer (Fat Tire Amber Ale)</t>
   </si>
   <si>
@@ -97,9 +106,6 @@
     <t>Oats</t>
   </si>
   <si>
-    <t>Peeled oats</t>
-  </si>
-  <si>
     <t>Jasmine rice</t>
   </si>
   <si>
@@ -112,15 +118,24 @@
     <t>Potatoes</t>
   </si>
   <si>
+    <t>grams</t>
+  </si>
+  <si>
     <t>Sweet potatoes</t>
   </si>
   <si>
+    <t>unit</t>
+  </si>
+  <si>
     <t>Cassava</t>
   </si>
   <si>
     <t>Sugar</t>
   </si>
   <si>
+    <t>tbsp</t>
+  </si>
+  <si>
     <t>Sugar cane</t>
   </si>
   <si>
@@ -181,15 +196,9 @@
     <t>Peanuts</t>
   </si>
   <si>
-    <t>Soybeans</t>
-  </si>
-  <si>
     <t>Soybean oil</t>
   </si>
   <si>
-    <t>Soybean</t>
-  </si>
-  <si>
     <t>Palm oil</t>
   </si>
   <si>
@@ -202,9 +211,6 @@
     <t>Sunflower seeds</t>
   </si>
   <si>
-    <t>Canola</t>
-  </si>
-  <si>
     <t>Canola oil</t>
   </si>
   <si>
@@ -253,10 +259,13 @@
     <t>Spring onions</t>
   </si>
   <si>
+    <t>bunch</t>
+  </si>
+  <si>
     <t>Garlic</t>
   </si>
   <si>
-    <t>Bunched carrots</t>
+    <t>clove</t>
   </si>
   <si>
     <t>Carrots</t>
@@ -619,25 +628,991 @@
     <t>Aquatic Plants</t>
   </si>
   <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>dl</t>
-  </si>
-  <si>
-    <t>grams</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>tbsp</t>
-  </si>
-  <si>
-    <t>bunch</t>
-  </si>
-  <si>
-    <t>clove</t>
+    <t>Bagel</t>
+  </si>
+  <si>
+    <t>Bran grain bread</t>
+  </si>
+  <si>
+    <t>Bread, French bread, baguette</t>
+  </si>
+  <si>
+    <t>Bread, gluten free</t>
+  </si>
+  <si>
+    <t>Brioche</t>
+  </si>
+  <si>
+    <t>Chocolate croissant</t>
+  </si>
+  <si>
+    <t>Corn tortilla wrap, to be filled</t>
+  </si>
+  <si>
+    <t>Crispbread, extruded and grilled</t>
+  </si>
+  <si>
+    <t>Croissant</t>
+  </si>
+  <si>
+    <t>Croutons</t>
+  </si>
+  <si>
+    <t>English muffin, prepacked</t>
+  </si>
+  <si>
+    <t>Grissini or bread stick</t>
+  </si>
+  <si>
+    <t>Milk roll, prepacked</t>
+  </si>
+  <si>
+    <t>Panini bread</t>
+  </si>
+  <si>
+    <t>Pita bread</t>
+  </si>
+  <si>
+    <t>Rolls for hamburger/hotdog (buns), prepacked</t>
+  </si>
+  <si>
+    <t>Rusk</t>
+  </si>
+  <si>
+    <t>Rye bread, and wheat</t>
+  </si>
+  <si>
+    <t>Sandwich loaf</t>
+  </si>
+  <si>
+    <t>Wheat tortilla wrap, to be filled</t>
+  </si>
+  <si>
+    <t>Maize flour</t>
+  </si>
+  <si>
+    <t>Beer, alcohol-free (&lt;1,2° alcohol)</t>
+  </si>
+  <si>
+    <t>Beer, dark</t>
+  </si>
+  <si>
+    <t>Beer, low alcohol-content (3° alcohol)</t>
+  </si>
+  <si>
+    <t>Beer, regular (4-5° alcohol)</t>
+  </si>
+  <si>
+    <t>Beer, special (5-6° alcohol)</t>
+  </si>
+  <si>
+    <t>Beer, "specialty", from abbey or regional (varying alcohol content)</t>
+  </si>
+  <si>
+    <t>Beer, strong (&gt;8° alcohol)</t>
+  </si>
+  <si>
+    <t>Rice flour</t>
+  </si>
+  <si>
+    <t>Yam or Indian potatoes</t>
+  </si>
+  <si>
+    <t>French fries</t>
+  </si>
+  <si>
+    <t>Tapioca</t>
+  </si>
+  <si>
+    <t>Red kidney beans</t>
+  </si>
+  <si>
+    <t>Split pea</t>
+  </si>
+  <si>
+    <t>Haricot beans</t>
+  </si>
+  <si>
+    <t>Flageolet beans</t>
+  </si>
+  <si>
+    <t>Macadamia</t>
+  </si>
+  <si>
+    <t>Pecan</t>
+  </si>
+  <si>
+    <t>Asparagus</t>
+  </si>
+  <si>
+    <t>Beetroot</t>
+  </si>
+  <si>
+    <t>Brussels sprout</t>
+  </si>
+  <si>
+    <t>Cardoon</t>
+  </si>
+  <si>
+    <t>Chilli pepper</t>
+  </si>
+  <si>
+    <t>Zucchini</t>
+  </si>
+  <si>
+    <t>Plantain banana</t>
+  </si>
+  <si>
+    <t>Spinach</t>
+  </si>
+  <si>
+    <t>Squash</t>
+  </si>
+  <si>
+    <t>Sweet corn</t>
+  </si>
+  <si>
+    <t>Sweet pepper</t>
+  </si>
+  <si>
+    <t>Black currants</t>
+  </si>
+  <si>
+    <t>Blackberries</t>
+  </si>
+  <si>
+    <t>Cranberries</t>
+  </si>
+  <si>
+    <t>Gooseberry</t>
+  </si>
+  <si>
+    <t>Raisin</t>
+  </si>
+  <si>
+    <t>Apricot</t>
+  </si>
+  <si>
+    <t>Carambola</t>
+  </si>
+  <si>
+    <t>Fig</t>
+  </si>
+  <si>
+    <t>Guava</t>
+  </si>
+  <si>
+    <t>Lychee</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Passion fruit</t>
+  </si>
+  <si>
+    <t>Pomegranate</t>
+  </si>
+  <si>
+    <t>Tamarind</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Beef sausages</t>
+  </si>
+  <si>
+    <t>Beef burger</t>
+  </si>
+  <si>
+    <t>Bresaola</t>
+  </si>
+  <si>
+    <t>Veal</t>
+  </si>
+  <si>
+    <t>Bacon</t>
+  </si>
+  <si>
+    <t>Ham</t>
+  </si>
+  <si>
+    <t>Pork sausages</t>
+  </si>
+  <si>
+    <t>Pork ribs</t>
+  </si>
+  <si>
+    <t>Pork burger</t>
+  </si>
+  <si>
+    <t>Chicken sausages</t>
+  </si>
+  <si>
+    <t>Chicken burger</t>
+  </si>
+  <si>
+    <t>Condensed milk</t>
+  </si>
+  <si>
+    <t>Milk powder</t>
+  </si>
+  <si>
+    <t>Yogurt</t>
+  </si>
+  <si>
+    <t>Greek yogurt</t>
+  </si>
+  <si>
+    <t>Dairy drink</t>
+  </si>
+  <si>
+    <t>Cream cheese</t>
+  </si>
+  <si>
+    <t>Abondance cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Asiago cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Auvergne blue cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Beaufort cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Blue cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Bresse blue cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Brie cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Brie de Meaux cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Brie de Melun cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Camembert cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Cantal cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Carré de l'Est cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Causses blue cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Chabichou cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Chaource cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Cheddar cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Cheese, buche, from goat's milk</t>
+  </si>
+  <si>
+    <t>Cheese, dry, from goat's milk</t>
+  </si>
+  <si>
+    <t>Cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Cheese, semi-dry, from goat's milk</t>
+  </si>
+  <si>
+    <t>Chevrot cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Comté cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Corsica soft ripened cheese, from ewe's milk</t>
+  </si>
+  <si>
+    <t>Coulommiers cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Crottin cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Crottin de Chavignol cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Edam cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Emmental cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Époisses cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Feta cheese, from ewe's milk</t>
+  </si>
+  <si>
+    <t>Feta-type cheese from cow's milk</t>
+  </si>
+  <si>
+    <t>Fontina cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Fourme d'Ambert cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Fourme de Montbrison cheese</t>
+  </si>
+  <si>
+    <t>Gex blue cheese, or Jura blue cheese or Septmoncel blue cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Goat cheese from raw milk</t>
+  </si>
+  <si>
+    <t>Gorgonzola cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Gouda cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Grana Padano cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Gruyere cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Hard cheese, emmental-type cheese, reduced fat</t>
+  </si>
+  <si>
+    <t>Langres cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Livarot cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Maroilles cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Mimolette cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Morbier cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Mozzarella cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Munster cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Neufchâtel cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Ossau-Iraty cheese, from ewe's milk</t>
+  </si>
+  <si>
+    <t>Parmesan cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Pélardon cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Picodon cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Plant-based cheese, without soybean, prepacked, shredded</t>
+  </si>
+  <si>
+    <t>Plant-based cheese, without soybean, prepacked, sliced</t>
+  </si>
+  <si>
+    <t>Plant-based spread-cheese type, with soybean, prepacked</t>
+  </si>
+  <si>
+    <t>Pont l'Evêque cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Pouligny Saint-Pierre cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Processed cheese</t>
+  </si>
+  <si>
+    <t>Provolone cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Pyrénées cheese, from ewe's milk</t>
+  </si>
+  <si>
+    <t>Raclette cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Reblochon cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Rocamadour cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Roquefort cheese, from ewe's milk</t>
+  </si>
+  <si>
+    <t>Sainte Maure cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Saint-Felicien cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Saint-Marcellin cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Saint-Nectaire cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Saint-Paulin cheese, from cow's milk (semi-hard cheese)</t>
+  </si>
+  <si>
+    <t>Salers cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Selles-sur-Cher cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Semi-hard cheese, from ewe's milk</t>
+  </si>
+  <si>
+    <t>Soft ripened cheese</t>
+  </si>
+  <si>
+    <t>Tomme cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Uncured soft cheese, spreadable</t>
+  </si>
+  <si>
+    <t>Vacherin cheese or Mont d'or cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Valençay cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Duck eggs</t>
+  </si>
+  <si>
+    <t>Goose eggs</t>
+  </si>
+  <si>
+    <t>Turkey eggs</t>
+  </si>
+  <si>
+    <t>Gilthead seabream</t>
+  </si>
+  <si>
+    <t>Mediterranean bass</t>
+  </si>
+  <si>
+    <t>Turbot</t>
+  </si>
+  <si>
+    <t>Mussel</t>
+  </si>
+  <si>
+    <t>Lobster</t>
+  </si>
+  <si>
+    <t>Crab</t>
+  </si>
+  <si>
+    <t>Oyster</t>
+  </si>
+  <si>
+    <t>Snails</t>
+  </si>
+  <si>
+    <t>Pasta</t>
+  </si>
+  <si>
+    <t>Asian noodles</t>
+  </si>
+  <si>
+    <t>Quinoa</t>
+  </si>
+  <si>
+    <t>Breakfast cereals</t>
+  </si>
+  <si>
+    <t>Cereal bar</t>
+  </si>
+  <si>
+    <t>Muesli flakes</t>
+  </si>
+  <si>
+    <t>Corn chips or tortilla chips</t>
+  </si>
+  <si>
+    <t>Pop corn</t>
+  </si>
+  <si>
+    <t>Avocado oil</t>
+  </si>
+  <si>
+    <t>Hazelnut oil</t>
+  </si>
+  <si>
+    <t>Linseed oil</t>
+  </si>
+  <si>
+    <t>Sesame oil</t>
+  </si>
+  <si>
+    <t>Vegetable fat</t>
+  </si>
+  <si>
+    <t>Fish oil</t>
+  </si>
+  <si>
+    <t>Fructose</t>
+  </si>
+  <si>
+    <t>Dulce de leche</t>
+  </si>
+  <si>
+    <t>Marmalade</t>
+  </si>
+  <si>
+    <t>Jam</t>
+  </si>
+  <si>
+    <t>Milk chocolate</t>
+  </si>
+  <si>
+    <t>White chocolate</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>Cakes</t>
+  </si>
+  <si>
+    <t>Frozen yogurt</t>
+  </si>
+  <si>
+    <t>Ice cream</t>
+  </si>
+  <si>
+    <t>Candies, all types</t>
+  </si>
+  <si>
+    <t>Mustard</t>
+  </si>
+  <si>
+    <t>Vinegar</t>
+  </si>
+  <si>
+    <t>Mayonnaise</t>
+  </si>
+  <si>
+    <t>Ketchup</t>
+  </si>
+  <si>
+    <t>Barbecue</t>
+  </si>
+  <si>
+    <t>Aioli sauce</t>
+  </si>
+  <si>
+    <t>Bechamel sauce</t>
+  </si>
+  <si>
+    <t>Humus</t>
+  </si>
+  <si>
+    <t>Salad dressing</t>
+  </si>
+  <si>
+    <t>Soy sauce</t>
+  </si>
+  <si>
+    <t>Sweet and sour sauce</t>
+  </si>
+  <si>
+    <t>Pesto</t>
+  </si>
+  <si>
+    <t>Tartare sauce</t>
+  </si>
+  <si>
+    <t>Tomato sauce</t>
+  </si>
+  <si>
+    <t>Tomato sauce for pizza base</t>
+  </si>
+  <si>
+    <t>Cream sauce for pizza base</t>
+  </si>
+  <si>
+    <t>Basil</t>
+  </si>
+  <si>
+    <t>Chervil</t>
+  </si>
+  <si>
+    <t>Coriander</t>
+  </si>
+  <si>
+    <t>Dill</t>
+  </si>
+  <si>
+    <t>Horseradish</t>
+  </si>
+  <si>
+    <t>Marjoram</t>
+  </si>
+  <si>
+    <t>Mint</t>
+  </si>
+  <si>
+    <t>Molokhia powder</t>
+  </si>
+  <si>
+    <t>Oregano</t>
+  </si>
+  <si>
+    <t>Parsley</t>
+  </si>
+  <si>
+    <t>Rosemary</t>
+  </si>
+  <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t>Savory</t>
+  </si>
+  <si>
+    <t>Tarragon</t>
+  </si>
+  <si>
+    <t>Thyme</t>
+  </si>
+  <si>
+    <t>Gelatine</t>
+  </si>
+  <si>
+    <t>Miso</t>
+  </si>
+  <si>
+    <t>Oat bran</t>
+  </si>
+  <si>
+    <t>Rice bran</t>
+  </si>
+  <si>
+    <t>Sodium carbonate</t>
+  </si>
+  <si>
+    <t>Soy lecithin</t>
+  </si>
+  <si>
+    <t>Tempeh</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Sea salt</t>
+  </si>
+  <si>
+    <t>Black pepper</t>
+  </si>
+  <si>
+    <t>Caraway</t>
+  </si>
+  <si>
+    <t>Cardamom</t>
+  </si>
+  <si>
+    <t>Cinnamon</t>
+  </si>
+  <si>
+    <t>Cumin</t>
+  </si>
+  <si>
+    <t>Curry powder</t>
+  </si>
+  <si>
+    <t>Fennel seed</t>
+  </si>
+  <si>
+    <t>Fenugreek seed</t>
+  </si>
+  <si>
+    <t>Ginger powder</t>
+  </si>
+  <si>
+    <t>Ginger raw</t>
+  </si>
+  <si>
+    <t>Paprika</t>
+  </si>
+  <si>
+    <t>Saffron</t>
+  </si>
+  <si>
+    <t>Turmeric</t>
+  </si>
+  <si>
+    <t>Vanilla</t>
+  </si>
+  <si>
+    <t>Chicken fat</t>
+  </si>
+  <si>
+    <t>Duck fat</t>
+  </si>
+  <si>
+    <t>Goose fat</t>
+  </si>
+  <si>
+    <t>Lard or pork fat</t>
+  </si>
+  <si>
+    <t>Turkey fat</t>
+  </si>
+  <si>
+    <t>Alaska pollock</t>
+  </si>
+  <si>
+    <t>Albacore</t>
+  </si>
+  <si>
+    <t>American bass</t>
+  </si>
+  <si>
+    <t>Sea scallop</t>
+  </si>
+  <si>
+    <t>Anchovy</t>
+  </si>
+  <si>
+    <t>Anglerfish</t>
+  </si>
+  <si>
+    <t>Arctic char</t>
+  </si>
+  <si>
+    <t>Atlantic bass</t>
+  </si>
+  <si>
+    <t>Atlantic chub mackerel</t>
+  </si>
+  <si>
+    <t>Atlantic halibut</t>
+  </si>
+  <si>
+    <t>Atlantic herring</t>
+  </si>
+  <si>
+    <t>Bigeye scad</t>
+  </si>
+  <si>
+    <t>Big-scale sand smelt</t>
+  </si>
+  <si>
+    <t>Black seabream</t>
+  </si>
+  <si>
+    <t>Blackspot seabream</t>
+  </si>
+  <si>
+    <t>Blue grenadier</t>
+  </si>
+  <si>
+    <t>Blue ling</t>
+  </si>
+  <si>
+    <t>Blue shark</t>
+  </si>
+  <si>
+    <t>Bogue</t>
+  </si>
+  <si>
+    <t>Brown bullhead</t>
+  </si>
+  <si>
+    <t>Brown meagre</t>
+  </si>
+  <si>
+    <t>Capelin</t>
+  </si>
+  <si>
+    <t>Cod</t>
+  </si>
+  <si>
+    <t>Common dab</t>
+  </si>
+  <si>
+    <t>Common dentex</t>
+  </si>
+  <si>
+    <t>Common sole</t>
+  </si>
+  <si>
+    <t>Conger</t>
+  </si>
+  <si>
+    <t>Crevalle jack</t>
+  </si>
+  <si>
+    <t>Deep water pink shrimp</t>
+  </si>
+  <si>
+    <t>Pilchard</t>
+  </si>
+  <si>
+    <t>Sardine</t>
+  </si>
+  <si>
+    <t>Hake</t>
+  </si>
+  <si>
+    <t>Plaice</t>
+  </si>
+  <si>
+    <t>Garfish</t>
+  </si>
+  <si>
+    <t>Golden redfish</t>
+  </si>
+  <si>
+    <t>Greenland halibut</t>
+  </si>
+  <si>
+    <t>Grouper</t>
+  </si>
+  <si>
+    <t>Haddock</t>
+  </si>
+  <si>
+    <t>Wild crab</t>
+  </si>
+  <si>
+    <t>Wild mussel</t>
+  </si>
+  <si>
+    <t>Wild lobster</t>
+  </si>
+  <si>
+    <t>Wild oyster</t>
+  </si>
+  <si>
+    <t>Lemon sole</t>
+  </si>
+  <si>
+    <t>Ling</t>
+  </si>
+  <si>
+    <t>Megrim</t>
+  </si>
+  <si>
+    <t>Mullet</t>
+  </si>
+  <si>
+    <t>Nile perch</t>
+  </si>
+  <si>
+    <t>Pollack</t>
+  </si>
+  <si>
+    <t>Pond smelt</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Red gurnard</t>
+  </si>
+  <si>
+    <t>Saithe</t>
+  </si>
+  <si>
+    <t>Wild snail</t>
+  </si>
+  <si>
+    <t>Snapper</t>
+  </si>
+  <si>
+    <t>Spotted wolffish</t>
+  </si>
+  <si>
+    <t>Squid</t>
+  </si>
+  <si>
+    <t>Surimi</t>
+  </si>
+  <si>
+    <t>Swordfish</t>
+  </si>
+  <si>
+    <t>Tonguesole</t>
+  </si>
+  <si>
+    <t>Tub gurnard</t>
+  </si>
+  <si>
+    <t>Whiting</t>
+  </si>
+  <si>
+    <t>Seaweed</t>
+  </si>
+  <si>
+    <t>Laver</t>
+  </si>
+  <si>
+    <t>Wakame</t>
+  </si>
+  <si>
+    <t>Sea lettuce</t>
+  </si>
+  <si>
+    <t>Sea thong</t>
+  </si>
+  <si>
+    <t>Spirulina</t>
+  </si>
+  <si>
+    <t>Tangle</t>
+  </si>
+  <si>
+    <t>Soymilk</t>
+  </si>
+  <si>
+    <t>Soybean Tofu</t>
+  </si>
+  <si>
+    <t>Soybean, whole grain</t>
+  </si>
+  <si>
+    <t>Canola seeds</t>
+  </si>
+  <si>
+    <t>Cane molasses</t>
+  </si>
+  <si>
+    <t>slice</t>
   </si>
 </sst>
 </file>
@@ -661,12 +1636,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -681,9 +1662,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,10 +2000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:D523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1029,7 +2011,7 @@
     <col min="1" max="1" width="52.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,1629 +2021,4204 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="C16" t="s">
-        <v>195</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="C22" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>455</v>
+        <v>210</v>
       </c>
       <c r="C23" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="C24" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s">
-        <v>198</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="C27" t="s">
-        <v>198</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="C43" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="C45" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>196</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>196</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>198</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="B51">
+        <v>455</v>
       </c>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="C53" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="C54" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="C56" t="s">
-        <v>198</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>523</v>
       </c>
       <c r="C59" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>198</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C68" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>228</v>
       </c>
       <c r="C71" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>229</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="C73" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>231</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C76" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C78" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C79" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C80" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C81" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C82" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="C83" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c r="C84" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>519</v>
       </c>
       <c r="C86" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>520</v>
       </c>
       <c r="C87" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C88" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>521</v>
       </c>
       <c r="C89" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C90" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C91" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C92" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="C93" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>522</v>
       </c>
       <c r="C94" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C95" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C96" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C97" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C98" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C99" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C101" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C102" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C104" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C105" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C106" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C107" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>104</v>
+        <v>70</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C109" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C110" t="s">
-        <v>197</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C111" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C112" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C113" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C114" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C115" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C116" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C117" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C118" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C119" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C120" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C121" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C122" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C123" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C124" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C125" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C126" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C127" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C128" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="C129" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C130" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="C131" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>128</v>
-      </c>
-      <c r="B132">
-        <v>455</v>
+        <v>97</v>
       </c>
       <c r="C132" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="C133" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C134" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="C135" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="C136" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="C137" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="C138" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="C139" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="C140" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="C141" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="C142" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="C143" t="s">
-        <v>195</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="C144" t="s">
-        <v>195</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="C145" t="s">
-        <v>195</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="C146" t="s">
-        <v>195</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="C147" t="s">
-        <v>195</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="C148" t="s">
-        <v>195</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="C149" t="s">
-        <v>195</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="C150" t="s">
-        <v>195</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="C151" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="C152" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="C153" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C154" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="C155" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="C156" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="C157" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="C158" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c r="C159" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="C160" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="C161" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>154</v>
+        <v>248</v>
       </c>
       <c r="C162" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="C163" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="C164" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="C165" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="C166" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="C167" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="C168" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="C169" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="C170" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="C171" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="C172" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="C173" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="C174" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="C175" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="C176" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="C177" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="C178" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="C179" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>172</v>
+        <v>251</v>
       </c>
       <c r="C180" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="C181" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="C182" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="C183" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="C184" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="C185" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="C186" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="C187" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="C188" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="C189" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="C190" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="C191" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="C192" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>185</v>
+        <v>130</v>
+      </c>
+      <c r="B193">
+        <v>455</v>
       </c>
       <c r="C193" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="C194" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="C195" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="C196" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="C197" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="C198" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="C199" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="C200" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
+        <v>134</v>
+      </c>
+      <c r="C201" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>135</v>
+      </c>
+      <c r="C202" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>136</v>
+      </c>
+      <c r="C203" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>265</v>
+      </c>
+      <c r="C204" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>266</v>
+      </c>
+      <c r="C205" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>267</v>
+      </c>
+      <c r="C206" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>268</v>
+      </c>
+      <c r="C207" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>269</v>
+      </c>
+      <c r="C208" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>137</v>
+      </c>
+      <c r="C209" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>270</v>
+      </c>
+      <c r="C210" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>271</v>
+      </c>
+      <c r="C211" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>138</v>
+      </c>
+      <c r="C212" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>139</v>
+      </c>
+      <c r="C213" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>140</v>
+      </c>
+      <c r="C214" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>141</v>
+      </c>
+      <c r="C215" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>142</v>
+      </c>
+      <c r="C216" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>143</v>
+      </c>
+      <c r="C217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>144</v>
+      </c>
+      <c r="C218" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>141</v>
+      </c>
+      <c r="C219" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>142</v>
+      </c>
+      <c r="C220" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>143</v>
+      </c>
+      <c r="C221" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>144</v>
+      </c>
+      <c r="C222" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>272</v>
+      </c>
+      <c r="C223" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>273</v>
+      </c>
+      <c r="C224" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>274</v>
+      </c>
+      <c r="C225" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>275</v>
+      </c>
+      <c r="C226" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>276</v>
+      </c>
+      <c r="C227" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>145</v>
+      </c>
+      <c r="C228" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>146</v>
+      </c>
+      <c r="C229" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>147</v>
+      </c>
+      <c r="C230" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>148</v>
+      </c>
+      <c r="C231" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>149</v>
+      </c>
+      <c r="C232" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>277</v>
+      </c>
+      <c r="C233" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>278</v>
+      </c>
+      <c r="C234" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>279</v>
+      </c>
+      <c r="C235" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>280</v>
+      </c>
+      <c r="C236" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>281</v>
+      </c>
+      <c r="C237" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>282</v>
+      </c>
+      <c r="C238" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>283</v>
+      </c>
+      <c r="C239" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>284</v>
+      </c>
+      <c r="C240" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>285</v>
+      </c>
+      <c r="C241" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>286</v>
+      </c>
+      <c r="C242" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>287</v>
+      </c>
+      <c r="C243" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>288</v>
+      </c>
+      <c r="C244" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>289</v>
+      </c>
+      <c r="C245" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>290</v>
+      </c>
+      <c r="C246" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>291</v>
+      </c>
+      <c r="C247" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>292</v>
+      </c>
+      <c r="C248" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>293</v>
+      </c>
+      <c r="C249" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>294</v>
+      </c>
+      <c r="C250" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>295</v>
+      </c>
+      <c r="C251" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>296</v>
+      </c>
+      <c r="C252" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>297</v>
+      </c>
+      <c r="C253" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>298</v>
+      </c>
+      <c r="C254" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>299</v>
+      </c>
+      <c r="C255" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>300</v>
+      </c>
+      <c r="C256" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>301</v>
+      </c>
+      <c r="C257" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>302</v>
+      </c>
+      <c r="C258" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>303</v>
+      </c>
+      <c r="C259" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>304</v>
+      </c>
+      <c r="C260" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>305</v>
+      </c>
+      <c r="C261" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>306</v>
+      </c>
+      <c r="C262" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>307</v>
+      </c>
+      <c r="C263" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>308</v>
+      </c>
+      <c r="C264" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>309</v>
+      </c>
+      <c r="C265" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>310</v>
+      </c>
+      <c r="C266" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>311</v>
+      </c>
+      <c r="C267" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>312</v>
+      </c>
+      <c r="C268" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>313</v>
+      </c>
+      <c r="C269" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>314</v>
+      </c>
+      <c r="C270" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>315</v>
+      </c>
+      <c r="C271" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>316</v>
+      </c>
+      <c r="C272" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>317</v>
+      </c>
+      <c r="C273" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>318</v>
+      </c>
+      <c r="C274" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>319</v>
+      </c>
+      <c r="C275" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>320</v>
+      </c>
+      <c r="C276" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>321</v>
+      </c>
+      <c r="C277" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>322</v>
+      </c>
+      <c r="C278" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>323</v>
+      </c>
+      <c r="C279" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>324</v>
+      </c>
+      <c r="C280" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>325</v>
+      </c>
+      <c r="C281" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>326</v>
+      </c>
+      <c r="C282" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>327</v>
+      </c>
+      <c r="C283" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>328</v>
+      </c>
+      <c r="C284" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>329</v>
+      </c>
+      <c r="C285" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>330</v>
+      </c>
+      <c r="C286" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C287" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C288" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C289" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>334</v>
+      </c>
+      <c r="C290" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>335</v>
+      </c>
+      <c r="C291" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>336</v>
+      </c>
+      <c r="C292" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>337</v>
+      </c>
+      <c r="C293" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>338</v>
+      </c>
+      <c r="C294" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>339</v>
+      </c>
+      <c r="C295" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>340</v>
+      </c>
+      <c r="C296" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>341</v>
+      </c>
+      <c r="C297" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>342</v>
+      </c>
+      <c r="C298" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>343</v>
+      </c>
+      <c r="C299" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>344</v>
+      </c>
+      <c r="C300" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>345</v>
+      </c>
+      <c r="C301" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>346</v>
+      </c>
+      <c r="C302" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>347</v>
+      </c>
+      <c r="C303" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>348</v>
+      </c>
+      <c r="C304" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>349</v>
+      </c>
+      <c r="C305" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>350</v>
+      </c>
+      <c r="C306" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>351</v>
+      </c>
+      <c r="C307" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>352</v>
+      </c>
+      <c r="C308" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>353</v>
+      </c>
+      <c r="C309" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>354</v>
+      </c>
+      <c r="C310" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>355</v>
+      </c>
+      <c r="C311" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>150</v>
+      </c>
+      <c r="C312" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>356</v>
+      </c>
+      <c r="C313" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>357</v>
+      </c>
+      <c r="C314" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>358</v>
+      </c>
+      <c r="C315" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>151</v>
+      </c>
+      <c r="C316" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>152</v>
+      </c>
+      <c r="C317" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>153</v>
+      </c>
+      <c r="C318" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>154</v>
+      </c>
+      <c r="C319" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>155</v>
+      </c>
+      <c r="C320" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>156</v>
+      </c>
+      <c r="C321" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>157</v>
+      </c>
+      <c r="C322" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>158</v>
+      </c>
+      <c r="C323" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>159</v>
+      </c>
+      <c r="C324" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>160</v>
+      </c>
+      <c r="C325" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>161</v>
+      </c>
+      <c r="C326" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>162</v>
+      </c>
+      <c r="C327" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>163</v>
+      </c>
+      <c r="C328" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>164</v>
+      </c>
+      <c r="C329" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>165</v>
+      </c>
+      <c r="C330" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>166</v>
+      </c>
+      <c r="C331" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>167</v>
+      </c>
+      <c r="C332" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>168</v>
+      </c>
+      <c r="C333" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>169</v>
+      </c>
+      <c r="C334" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>170</v>
+      </c>
+      <c r="C335" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>171</v>
+      </c>
+      <c r="C336" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>172</v>
+      </c>
+      <c r="C337" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>173</v>
+      </c>
+      <c r="C338" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>174</v>
+      </c>
+      <c r="C339" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>175</v>
+      </c>
+      <c r="C340" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>176</v>
+      </c>
+      <c r="C341" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>359</v>
+      </c>
+      <c r="C342" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>360</v>
+      </c>
+      <c r="C343" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>361</v>
+      </c>
+      <c r="C344" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>177</v>
+      </c>
+      <c r="C345" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>178</v>
+      </c>
+      <c r="C346" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>179</v>
+      </c>
+      <c r="C347" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>180</v>
+      </c>
+      <c r="C348" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>181</v>
+      </c>
+      <c r="C349" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>362</v>
+      </c>
+      <c r="C350" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>363</v>
+      </c>
+      <c r="C351" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>364</v>
+      </c>
+      <c r="C352" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>365</v>
+      </c>
+      <c r="C353" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>366</v>
+      </c>
+      <c r="C354" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>182</v>
+      </c>
+      <c r="C355" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>367</v>
+      </c>
+      <c r="C356" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>368</v>
+      </c>
+      <c r="C357" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
+        <v>369</v>
+      </c>
+      <c r="C358" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
+        <v>370</v>
+      </c>
+      <c r="C359" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
+        <v>371</v>
+      </c>
+      <c r="C360" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
+        <v>372</v>
+      </c>
+      <c r="C361" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>373</v>
+      </c>
+      <c r="C362" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>374</v>
+      </c>
+      <c r="C363" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>183</v>
+      </c>
+      <c r="C364" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>375</v>
+      </c>
+      <c r="C365" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>376</v>
+      </c>
+      <c r="C366" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>377</v>
+      </c>
+      <c r="C367" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>378</v>
+      </c>
+      <c r="C368" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C369" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>184</v>
+      </c>
+      <c r="C370" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>380</v>
+      </c>
+      <c r="C371" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>185</v>
+      </c>
+      <c r="C372" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>186</v>
+      </c>
+      <c r="C373" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>381</v>
+      </c>
+      <c r="C374" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>382</v>
+      </c>
+      <c r="C375" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>383</v>
+      </c>
+      <c r="C376" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>384</v>
+      </c>
+      <c r="C377" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>385</v>
+      </c>
+      <c r="C378" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>386</v>
+      </c>
+      <c r="C379" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C380" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C381" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C382" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C383" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C384" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>187</v>
+      </c>
+      <c r="C385" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>188</v>
+      </c>
+      <c r="C386" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>392</v>
+      </c>
+      <c r="C387" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>393</v>
+      </c>
+      <c r="C388" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>394</v>
+      </c>
+      <c r="C389" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>395</v>
+      </c>
+      <c r="C390" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>396</v>
+      </c>
+      <c r="C391" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>397</v>
+      </c>
+      <c r="C392" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>398</v>
+      </c>
+      <c r="C393" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>399</v>
+      </c>
+      <c r="C394" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>400</v>
+      </c>
+      <c r="C395" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>401</v>
+      </c>
+      <c r="C396" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>402</v>
+      </c>
+      <c r="C397" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>403</v>
+      </c>
+      <c r="C398" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>404</v>
+      </c>
+      <c r="C399" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>405</v>
+      </c>
+      <c r="C400" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>406</v>
+      </c>
+      <c r="C401" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>407</v>
+      </c>
+      <c r="C402" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>408</v>
+      </c>
+      <c r="C403" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
+        <v>409</v>
+      </c>
+      <c r="C404" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>410</v>
+      </c>
+      <c r="C405" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>411</v>
+      </c>
+      <c r="C406" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
+        <v>74</v>
+      </c>
+      <c r="C407" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
+        <v>412</v>
+      </c>
+      <c r="C408" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" t="s">
+        <v>413</v>
+      </c>
+      <c r="C409" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="s">
+        <v>414</v>
+      </c>
+      <c r="C410" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" t="s">
+        <v>415</v>
+      </c>
+      <c r="C411" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" t="s">
+        <v>416</v>
+      </c>
+      <c r="C412" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" t="s">
+        <v>417</v>
+      </c>
+      <c r="C413" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" t="s">
+        <v>418</v>
+      </c>
+      <c r="C414" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" t="s">
+        <v>419</v>
+      </c>
+      <c r="C415" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" t="s">
+        <v>420</v>
+      </c>
+      <c r="C416" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="s">
+        <v>421</v>
+      </c>
+      <c r="C417" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="s">
+        <v>422</v>
+      </c>
+      <c r="C418" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="s">
+        <v>423</v>
+      </c>
+      <c r="C419" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" t="s">
+        <v>424</v>
+      </c>
+      <c r="C420" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" t="s">
+        <v>425</v>
+      </c>
+      <c r="C421" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" t="s">
+        <v>426</v>
+      </c>
+      <c r="C422" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" t="s">
+        <v>427</v>
+      </c>
+      <c r="C423" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" t="s">
+        <v>428</v>
+      </c>
+      <c r="C424" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" t="s">
+        <v>429</v>
+      </c>
+      <c r="C425" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" t="s">
+        <v>430</v>
+      </c>
+      <c r="C426" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="s">
+        <v>431</v>
+      </c>
+      <c r="C427" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="s">
+        <v>432</v>
+      </c>
+      <c r="C428" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="s">
+        <v>433</v>
+      </c>
+      <c r="C429" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="s">
+        <v>434</v>
+      </c>
+      <c r="C430" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="s">
+        <v>435</v>
+      </c>
+      <c r="C431" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="s">
+        <v>436</v>
+      </c>
+      <c r="C432" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" t="s">
+        <v>437</v>
+      </c>
+      <c r="C433" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" t="s">
+        <v>438</v>
+      </c>
+      <c r="C434" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="s">
+        <v>439</v>
+      </c>
+      <c r="C435" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" t="s">
+        <v>440</v>
+      </c>
+      <c r="C436" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" t="s">
+        <v>441</v>
+      </c>
+      <c r="C437" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" t="s">
+        <v>442</v>
+      </c>
+      <c r="C438" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" t="s">
+        <v>443</v>
+      </c>
+      <c r="C439" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" t="s">
+        <v>444</v>
+      </c>
+      <c r="C440" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" t="s">
+        <v>445</v>
+      </c>
+      <c r="C441" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" t="s">
+        <v>189</v>
+      </c>
+      <c r="C442" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" t="s">
+        <v>446</v>
+      </c>
+      <c r="C443" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" t="s">
+        <v>447</v>
+      </c>
+      <c r="C444" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" t="s">
+        <v>448</v>
+      </c>
+      <c r="C445" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" t="s">
+        <v>449</v>
+      </c>
+      <c r="C446" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" t="s">
+        <v>450</v>
+      </c>
+      <c r="C447" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" t="s">
+        <v>190</v>
+      </c>
+      <c r="C448" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" t="s">
+        <v>191</v>
+      </c>
+      <c r="C449" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" t="s">
+        <v>192</v>
+      </c>
+      <c r="C450" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" t="s">
         <v>193</v>
       </c>
-      <c r="C201" t="s">
-        <v>197</v>
+      <c r="C451" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" t="s">
+        <v>194</v>
+      </c>
+      <c r="C452" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" t="s">
+        <v>451</v>
+      </c>
+      <c r="C453" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" t="s">
+        <v>452</v>
+      </c>
+      <c r="C454" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" t="s">
+        <v>453</v>
+      </c>
+      <c r="C455" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" t="s">
+        <v>454</v>
+      </c>
+      <c r="C456" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" t="s">
+        <v>455</v>
+      </c>
+      <c r="C457" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" t="s">
+        <v>456</v>
+      </c>
+      <c r="C458" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" t="s">
+        <v>457</v>
+      </c>
+      <c r="C459" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" t="s">
+        <v>458</v>
+      </c>
+      <c r="C460" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" t="s">
+        <v>459</v>
+      </c>
+      <c r="C461" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" t="s">
+        <v>460</v>
+      </c>
+      <c r="C462" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" t="s">
+        <v>461</v>
+      </c>
+      <c r="C463" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" t="s">
+        <v>462</v>
+      </c>
+      <c r="C464" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" t="s">
+        <v>463</v>
+      </c>
+      <c r="C465" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" t="s">
+        <v>464</v>
+      </c>
+      <c r="C466" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" t="s">
+        <v>465</v>
+      </c>
+      <c r="C467" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" t="s">
+        <v>466</v>
+      </c>
+      <c r="C468" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" t="s">
+        <v>467</v>
+      </c>
+      <c r="C469" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" t="s">
+        <v>468</v>
+      </c>
+      <c r="C470" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" t="s">
+        <v>469</v>
+      </c>
+      <c r="C471" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" t="s">
+        <v>470</v>
+      </c>
+      <c r="C472" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" t="s">
+        <v>471</v>
+      </c>
+      <c r="C473" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" t="s">
+        <v>472</v>
+      </c>
+      <c r="C474" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" t="s">
+        <v>473</v>
+      </c>
+      <c r="C475" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" t="s">
+        <v>474</v>
+      </c>
+      <c r="C476" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" t="s">
+        <v>475</v>
+      </c>
+      <c r="C477" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" t="s">
+        <v>476</v>
+      </c>
+      <c r="C478" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" t="s">
+        <v>477</v>
+      </c>
+      <c r="C479" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" t="s">
+        <v>364</v>
+      </c>
+      <c r="C480" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" t="s">
+        <v>478</v>
+      </c>
+      <c r="C481" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" t="s">
+        <v>479</v>
+      </c>
+      <c r="C482" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" t="s">
+        <v>480</v>
+      </c>
+      <c r="C483" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" t="s">
+        <v>481</v>
+      </c>
+      <c r="C484" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" t="s">
+        <v>482</v>
+      </c>
+      <c r="C485" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" t="s">
+        <v>483</v>
+      </c>
+      <c r="C486" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" t="s">
+        <v>484</v>
+      </c>
+      <c r="C487" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" t="s">
+        <v>485</v>
+      </c>
+      <c r="C488" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" t="s">
+        <v>486</v>
+      </c>
+      <c r="C489" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" t="s">
+        <v>487</v>
+      </c>
+      <c r="C490" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" t="s">
+        <v>488</v>
+      </c>
+      <c r="C491" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" t="s">
+        <v>489</v>
+      </c>
+      <c r="C492" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" t="s">
+        <v>490</v>
+      </c>
+      <c r="C493" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" t="s">
+        <v>491</v>
+      </c>
+      <c r="C494" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" t="s">
+        <v>492</v>
+      </c>
+      <c r="C495" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" t="s">
+        <v>493</v>
+      </c>
+      <c r="C496" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" t="s">
+        <v>494</v>
+      </c>
+      <c r="C497" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" t="s">
+        <v>495</v>
+      </c>
+      <c r="C498" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" t="s">
+        <v>496</v>
+      </c>
+      <c r="C499" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" t="s">
+        <v>497</v>
+      </c>
+      <c r="C500" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" t="s">
+        <v>498</v>
+      </c>
+      <c r="C501" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" t="s">
+        <v>499</v>
+      </c>
+      <c r="C502" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" t="s">
+        <v>500</v>
+      </c>
+      <c r="C503" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" t="s">
+        <v>501</v>
+      </c>
+      <c r="C504" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" t="s">
+        <v>502</v>
+      </c>
+      <c r="C505" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" t="s">
+        <v>503</v>
+      </c>
+      <c r="C506" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" t="s">
+        <v>504</v>
+      </c>
+      <c r="C507" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" t="s">
+        <v>505</v>
+      </c>
+      <c r="C508" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" t="s">
+        <v>506</v>
+      </c>
+      <c r="C509" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" t="s">
+        <v>507</v>
+      </c>
+      <c r="C510" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" t="s">
+        <v>508</v>
+      </c>
+      <c r="C511" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" t="s">
+        <v>509</v>
+      </c>
+      <c r="C512" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" t="s">
+        <v>510</v>
+      </c>
+      <c r="C513" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" t="s">
+        <v>361</v>
+      </c>
+      <c r="C514" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" t="s">
+        <v>511</v>
+      </c>
+      <c r="C515" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" t="s">
+        <v>195</v>
+      </c>
+      <c r="C516" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" t="s">
+        <v>512</v>
+      </c>
+      <c r="C517" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" t="s">
+        <v>513</v>
+      </c>
+      <c r="C518" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" t="s">
+        <v>514</v>
+      </c>
+      <c r="C519" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" t="s">
+        <v>515</v>
+      </c>
+      <c r="C520" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" t="s">
+        <v>516</v>
+      </c>
+      <c r="C521" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" t="s">
+        <v>517</v>
+      </c>
+      <c r="C522" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" t="s">
+        <v>518</v>
+      </c>
+      <c r="C523" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D523"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/recipes/Recipe_template_1.xlsx
+++ b/data/recipes/Recipe_template_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\Downloads\Python basics\Project_V3\Python stuff\Thesis2024\data\recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2003,7 +2003,7 @@
   <dimension ref="A1:D523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2025,103 +2025,103 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>397</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>451</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>452</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>453</v>
       </c>
       <c r="C10" t="s">
-        <v>524</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>455</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>456</v>
       </c>
       <c r="C12" t="s">
-        <v>524</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C13" t="s">
-        <v>524</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -2137,23 +2137,23 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>457</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2169,23 +2169,23 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>208</v>
+        <v>368</v>
       </c>
       <c r="C21" t="s">
-        <v>524</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2193,47 +2193,47 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>210</v>
+        <v>458</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>211</v>
+        <v>459</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>460</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>213</v>
+        <v>461</v>
       </c>
       <c r="C26" t="s">
-        <v>524</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="C27" t="s">
-        <v>524</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2241,47 +2241,47 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>375</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>396</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -2289,55 +2289,58 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>281</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>398</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>130</v>
+      </c>
+      <c r="B38">
+        <v>455</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -2345,7 +2348,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -2353,7 +2356,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -2361,7 +2364,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2369,7 +2372,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>223</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2377,85 +2380,79 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51">
-        <v>455</v>
+        <v>219</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -2463,39 +2460,39 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>462</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>463</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>523</v>
+        <v>245</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>432</v>
       </c>
       <c r="C60" t="s">
         <v>31</v>
@@ -2503,15 +2500,15 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>464</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="C62" t="s">
         <v>26</v>
@@ -2519,7 +2516,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>465</v>
       </c>
       <c r="C63" t="s">
         <v>26</v>
@@ -2527,15 +2524,15 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="C65" t="s">
         <v>26</v>
@@ -2543,7 +2540,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>466</v>
       </c>
       <c r="C66" t="s">
         <v>26</v>
@@ -2551,7 +2548,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>467</v>
       </c>
       <c r="C67" t="s">
         <v>26</v>
@@ -2559,7 +2556,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>468</v>
       </c>
       <c r="C68" t="s">
         <v>26</v>
@@ -2567,7 +2564,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
         <v>26</v>
@@ -2575,7 +2572,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>469</v>
       </c>
       <c r="C70" t="s">
         <v>26</v>
@@ -2583,39 +2580,39 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>524</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>229</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>524</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>370</v>
       </c>
       <c r="C75" t="s">
         <v>26</v>
@@ -2623,7 +2620,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="C76" t="s">
         <v>26</v>
@@ -2631,7 +2628,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="C77" t="s">
         <v>26</v>
@@ -2639,7 +2636,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="C78" t="s">
         <v>26</v>
@@ -2647,7 +2644,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>285</v>
       </c>
       <c r="C79" t="s">
         <v>26</v>
@@ -2655,7 +2652,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>286</v>
       </c>
       <c r="C80" t="s">
         <v>26</v>
@@ -2663,23 +2660,23 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="C81" t="s">
-        <v>26</v>
+        <v>524</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="C83" t="s">
         <v>26</v>
@@ -2687,7 +2684,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="C84" t="s">
         <v>26</v>
@@ -2695,7 +2692,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>470</v>
       </c>
       <c r="C85" t="s">
         <v>26</v>
@@ -2703,7 +2700,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>519</v>
+        <v>471</v>
       </c>
       <c r="C86" t="s">
         <v>26</v>
@@ -2711,7 +2708,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>520</v>
+        <v>152</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
@@ -2719,15 +2716,15 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>52</v>
+        <v>236</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>521</v>
+        <v>190</v>
       </c>
       <c r="C89" t="s">
         <v>26</v>
@@ -2735,71 +2732,71 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="C91" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>522</v>
+      <c r="A94" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>524</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>59</v>
+      <c r="A97" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>523</v>
       </c>
       <c r="C98" t="s">
         <v>31</v>
@@ -2807,7 +2804,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C99" t="s">
         <v>31</v>
@@ -2815,18 +2812,15 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>62</v>
-      </c>
-      <c r="B100">
-        <v>2</v>
+        <v>522</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>63</v>
+        <v>288</v>
       </c>
       <c r="C101" t="s">
         <v>26</v>
@@ -2834,18 +2828,15 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>64</v>
+        <v>472</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>65</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -2853,50 +2844,47 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>66</v>
+        <v>433</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>67</v>
+        <v>434</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>70</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
+        <v>289</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -2904,15 +2892,15 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C110" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -2920,15 +2908,15 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -2936,15 +2924,15 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -2952,7 +2940,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>81</v>
+        <v>371</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -2960,87 +2948,87 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>84</v>
+        <v>292</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>86</v>
+        <v>293</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>87</v>
+        <v>294</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>88</v>
+        <v>295</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>89</v>
+        <v>296</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>90</v>
+        <v>297</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>91</v>
+        <v>409</v>
       </c>
       <c r="C126" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C127" t="s">
         <v>26</v>
@@ -3048,7 +3036,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>93</v>
+        <v>298</v>
       </c>
       <c r="C128" t="s">
         <v>26</v>
@@ -3056,23 +3044,23 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>95</v>
+        <v>271</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -3080,31 +3068,31 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>97</v>
+        <v>446</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>43</v>
+        <v>270</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>234</v>
+        <v>87</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -3112,7 +3100,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -3120,23 +3108,23 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="C137" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>237</v>
+        <v>100</v>
       </c>
       <c r="C138" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>238</v>
+        <v>118</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -3144,15 +3132,15 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -3160,15 +3148,15 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>241</v>
+        <v>435</v>
       </c>
       <c r="C142" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>242</v>
+        <v>101</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -3176,15 +3164,15 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>243</v>
+        <v>102</v>
       </c>
       <c r="C144" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -3192,103 +3180,103 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>99</v>
+        <v>473</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>103</v>
+        <v>474</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>104</v>
+        <v>475</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>105</v>
+        <v>476</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>106</v>
+        <v>299</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>108</v>
+        <v>477</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>109</v>
+      <c r="A156" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="C156" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="C157" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>111</v>
+        <v>373</v>
       </c>
       <c r="C158" t="s">
         <v>26</v>
@@ -3296,15 +3284,15 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="C159" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="C160" t="s">
         <v>26</v>
@@ -3312,7 +3300,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="C161" t="s">
         <v>26</v>
@@ -3320,15 +3308,15 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c r="C162" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="C163" t="s">
         <v>26</v>
@@ -3336,15 +3324,15 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="C164" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C165" t="s">
         <v>14</v>
@@ -3352,7 +3340,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C166" t="s">
         <v>14</v>
@@ -3360,7 +3348,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>115</v>
+        <v>364</v>
       </c>
       <c r="C167" t="s">
         <v>26</v>
@@ -3368,55 +3356,55 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>116</v>
+        <v>364</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>117</v>
+        <v>247</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>119</v>
+        <v>277</v>
       </c>
       <c r="C171" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>120</v>
+        <v>407</v>
       </c>
       <c r="C172" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>121</v>
+        <v>478</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -3424,7 +3412,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>122</v>
+        <v>204</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -3432,31 +3420,31 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>123</v>
+        <v>302</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="C177" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -3464,31 +3452,31 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>251</v>
+        <v>436</v>
       </c>
       <c r="C180" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>252</v>
+        <v>437</v>
       </c>
       <c r="C181" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="C182" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>254</v>
+        <v>479</v>
       </c>
       <c r="C183" t="s">
         <v>26</v>
@@ -3496,23 +3484,23 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>255</v>
+        <v>411</v>
       </c>
       <c r="C184" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="C185" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>257</v>
+        <v>356</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -3520,23 +3508,23 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>258</v>
+        <v>447</v>
       </c>
       <c r="C187" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>259</v>
+        <v>382</v>
       </c>
       <c r="C188" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>127</v>
+        <v>304</v>
       </c>
       <c r="C189" t="s">
         <v>26</v>
@@ -3544,15 +3532,15 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>260</v>
+        <v>148</v>
       </c>
       <c r="C190" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>128</v>
+        <v>305</v>
       </c>
       <c r="C191" t="s">
         <v>26</v>
@@ -3560,7 +3548,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -3568,18 +3556,15 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>130</v>
-      </c>
-      <c r="B193">
-        <v>455</v>
+        <v>206</v>
       </c>
       <c r="C193" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="C194" t="s">
         <v>26</v>
@@ -3587,23 +3572,23 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>262</v>
+        <v>60</v>
       </c>
       <c r="C195" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>263</v>
+        <v>61</v>
       </c>
       <c r="C196" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>264</v>
+        <v>37</v>
       </c>
       <c r="C197" t="s">
         <v>26</v>
@@ -3611,7 +3596,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>131</v>
+        <v>438</v>
       </c>
       <c r="C198" t="s">
         <v>26</v>
@@ -3619,7 +3604,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>132</v>
+        <v>439</v>
       </c>
       <c r="C199" t="s">
         <v>26</v>
@@ -3627,7 +3612,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>133</v>
+        <v>307</v>
       </c>
       <c r="C200" t="s">
         <v>26</v>
@@ -3635,7 +3620,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>134</v>
+        <v>308</v>
       </c>
       <c r="C201" t="s">
         <v>26</v>
@@ -3643,7 +3628,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="C202" t="s">
         <v>26</v>
@@ -3651,15 +3636,15 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="C203" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="C204" t="s">
         <v>26</v>
@@ -3667,15 +3652,15 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>266</v>
+        <v>380</v>
       </c>
       <c r="C205" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="C206" t="s">
         <v>26</v>
@@ -3683,7 +3668,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="C207" t="s">
         <v>26</v>
@@ -3691,7 +3676,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="C208" t="s">
         <v>26</v>
@@ -3699,7 +3684,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>137</v>
+        <v>311</v>
       </c>
       <c r="C209" t="s">
         <v>26</v>
@@ -3707,7 +3692,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>270</v>
+        <v>92</v>
       </c>
       <c r="C210" t="s">
         <v>26</v>
@@ -3715,31 +3700,31 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="C211" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" t="s">
-        <v>138</v>
+      <c r="A212" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="C212" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>139</v>
+        <v>381</v>
       </c>
       <c r="C213" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>140</v>
+        <v>484</v>
       </c>
       <c r="C214" t="s">
         <v>26</v>
@@ -3747,31 +3732,31 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="C215" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>142</v>
+        <v>423</v>
       </c>
       <c r="C216" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c r="C217" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="C218" t="s">
         <v>14</v>
@@ -3779,71 +3764,71 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="C219" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="C220" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="C221" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>144</v>
+        <v>359</v>
       </c>
       <c r="C222" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>272</v>
+        <v>440</v>
       </c>
       <c r="C223" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>273</v>
+        <v>441</v>
       </c>
       <c r="C224" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>274</v>
+        <v>132</v>
       </c>
       <c r="C225" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="C226" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>276</v>
+        <v>144</v>
       </c>
       <c r="C227" t="s">
         <v>14</v>
@@ -3851,15 +3836,15 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C228" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>146</v>
+        <v>485</v>
       </c>
       <c r="C229" t="s">
         <v>26</v>
@@ -3867,7 +3852,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C230" t="s">
         <v>26</v>
@@ -3875,31 +3860,31 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>148</v>
+        <v>357</v>
       </c>
       <c r="C231" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>149</v>
+        <v>448</v>
       </c>
       <c r="C232" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="C233" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="C234" t="s">
         <v>26</v>
@@ -3907,7 +3892,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>279</v>
+        <v>147</v>
       </c>
       <c r="C235" t="s">
         <v>26</v>
@@ -3915,7 +3900,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="C236" t="s">
         <v>26</v>
@@ -3923,7 +3908,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="C237" t="s">
         <v>26</v>
@@ -3931,7 +3916,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>282</v>
+        <v>160</v>
       </c>
       <c r="C238" t="s">
         <v>26</v>
@@ -3939,15 +3924,15 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C239" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="C240" t="s">
         <v>26</v>
@@ -3955,7 +3940,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>285</v>
+        <v>486</v>
       </c>
       <c r="C241" t="s">
         <v>26</v>
@@ -3963,15 +3948,15 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="C242" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>287</v>
+        <v>487</v>
       </c>
       <c r="C243" t="s">
         <v>26</v>
@@ -3979,7 +3964,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="C244" t="s">
         <v>26</v>
@@ -3987,15 +3972,15 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="C245" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>290</v>
+        <v>488</v>
       </c>
       <c r="C246" t="s">
         <v>26</v>
@@ -4003,7 +3988,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>291</v>
+        <v>482</v>
       </c>
       <c r="C247" t="s">
         <v>26</v>
@@ -4011,7 +3996,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="C248" t="s">
         <v>26</v>
@@ -4019,7 +4004,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="C249" t="s">
         <v>26</v>
@@ -4027,7 +4012,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="C250" t="s">
         <v>26</v>
@@ -4035,15 +4020,15 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>295</v>
+        <v>376</v>
       </c>
       <c r="C251" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>296</v>
+        <v>48</v>
       </c>
       <c r="C252" t="s">
         <v>26</v>
@@ -4051,79 +4036,79 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>297</v>
+        <v>94</v>
       </c>
       <c r="C253" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>298</v>
+        <v>186</v>
       </c>
       <c r="C254" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>299</v>
+        <v>412</v>
       </c>
       <c r="C255" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="C256" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" t="s">
-        <v>301</v>
+      <c r="A257" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="C257" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>302</v>
+        <v>95</v>
       </c>
       <c r="C258" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>303</v>
+        <v>384</v>
       </c>
       <c r="C259" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>304</v>
+        <v>22</v>
       </c>
       <c r="C260" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>305</v>
+        <v>395</v>
       </c>
       <c r="C261" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="C262" t="s">
         <v>26</v>
@@ -4131,7 +4116,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>307</v>
+        <v>173</v>
       </c>
       <c r="C263" t="s">
         <v>26</v>
@@ -4139,15 +4124,15 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>308</v>
+        <v>119</v>
       </c>
       <c r="C264" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>309</v>
+        <v>133</v>
       </c>
       <c r="C265" t="s">
         <v>26</v>
@@ -4155,15 +4140,15 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>310</v>
+        <v>96</v>
       </c>
       <c r="C266" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C267" t="s">
         <v>26</v>
@@ -4171,15 +4156,15 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>312</v>
+        <v>449</v>
       </c>
       <c r="C268" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>313</v>
+        <v>513</v>
       </c>
       <c r="C269" t="s">
         <v>26</v>
@@ -4187,15 +4172,15 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>314</v>
+        <v>71</v>
       </c>
       <c r="C270" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>315</v>
+        <v>493</v>
       </c>
       <c r="C271" t="s">
         <v>26</v>
@@ -4203,15 +4188,15 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>316</v>
+        <v>103</v>
       </c>
       <c r="C272" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>317</v>
+        <v>39</v>
       </c>
       <c r="C273" t="s">
         <v>26</v>
@@ -4219,15 +4204,15 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>318</v>
+        <v>97</v>
       </c>
       <c r="C274" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>319</v>
+        <v>494</v>
       </c>
       <c r="C275" t="s">
         <v>26</v>
@@ -4235,15 +4220,15 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="C276" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C277" t="s">
         <v>26</v>
@@ -4251,7 +4236,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="C278" t="s">
         <v>26</v>
@@ -4259,15 +4244,15 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>323</v>
+        <v>24</v>
       </c>
       <c r="C279" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="C280" t="s">
         <v>26</v>
@@ -4275,7 +4260,7 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>325</v>
+        <v>254</v>
       </c>
       <c r="C281" t="s">
         <v>26</v>
@@ -4283,7 +4268,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>326</v>
+        <v>232</v>
       </c>
       <c r="C282" t="s">
         <v>26</v>
@@ -4291,55 +4276,55 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>327</v>
+        <v>11</v>
       </c>
       <c r="C283" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>328</v>
+        <v>216</v>
       </c>
       <c r="C284" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>329</v>
+        <v>104</v>
       </c>
       <c r="C285" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>330</v>
+        <v>255</v>
       </c>
       <c r="C286" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" s="2" t="s">
-        <v>331</v>
+      <c r="A287" t="s">
+        <v>413</v>
       </c>
       <c r="C287" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" s="2" t="s">
-        <v>332</v>
+      <c r="A288" t="s">
+        <v>383</v>
       </c>
       <c r="C288" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289" s="2" t="s">
-        <v>333</v>
+      <c r="A289" t="s">
+        <v>321</v>
       </c>
       <c r="C289" t="s">
         <v>26</v>
@@ -4347,15 +4332,15 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>334</v>
+        <v>394</v>
       </c>
       <c r="C290" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="C291" t="s">
         <v>26</v>
@@ -4363,7 +4348,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>336</v>
+        <v>495</v>
       </c>
       <c r="C292" t="s">
         <v>26</v>
@@ -4371,15 +4356,15 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>337</v>
+        <v>120</v>
       </c>
       <c r="C293" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="C294" t="s">
         <v>26</v>
@@ -4387,23 +4372,23 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>339</v>
+        <v>273</v>
       </c>
       <c r="C295" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>340</v>
+        <v>208</v>
       </c>
       <c r="C296" t="s">
-        <v>26</v>
+        <v>524</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="C297" t="s">
         <v>26</v>
@@ -4411,31 +4396,31 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>342</v>
+        <v>414</v>
       </c>
       <c r="C298" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="C299" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>344</v>
+        <v>415</v>
       </c>
       <c r="C300" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C301" t="s">
         <v>26</v>
@@ -4443,7 +4428,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>346</v>
+        <v>149</v>
       </c>
       <c r="C302" t="s">
         <v>26</v>
@@ -4451,7 +4436,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="C303" t="s">
         <v>26</v>
@@ -4459,7 +4444,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="C304" t="s">
         <v>26</v>
@@ -4467,7 +4452,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>349</v>
+        <v>496</v>
       </c>
       <c r="C305" t="s">
         <v>26</v>
@@ -4475,7 +4460,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="C306" t="s">
         <v>26</v>
@@ -4483,7 +4468,7 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="C307" t="s">
         <v>26</v>
@@ -4491,15 +4476,15 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="C308" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>353</v>
+        <v>135</v>
       </c>
       <c r="C309" t="s">
         <v>26</v>
@@ -4507,15 +4492,15 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>354</v>
+        <v>121</v>
       </c>
       <c r="C310" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="C311" t="s">
         <v>26</v>
@@ -4523,55 +4508,55 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>150</v>
+        <v>497</v>
       </c>
       <c r="C312" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="C313" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>357</v>
+        <v>21</v>
       </c>
       <c r="C314" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>358</v>
+        <v>183</v>
       </c>
       <c r="C315" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="C316" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="C317" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="C318" t="s">
         <v>26</v>
@@ -4579,31 +4564,31 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="C319" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="C320" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>156</v>
+        <v>416</v>
       </c>
       <c r="C321" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>157</v>
+        <v>327</v>
       </c>
       <c r="C322" t="s">
         <v>26</v>
@@ -4611,7 +4596,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>158</v>
+        <v>365</v>
       </c>
       <c r="C323" t="s">
         <v>26</v>
@@ -4619,15 +4604,15 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="C324" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="C325" t="s">
         <v>26</v>
@@ -4635,15 +4620,15 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="C326" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C327" t="s">
         <v>26</v>
@@ -4651,31 +4636,31 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="C328" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="C329" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>165</v>
+        <v>442</v>
       </c>
       <c r="C330" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>166</v>
+        <v>328</v>
       </c>
       <c r="C331" t="s">
         <v>26</v>
@@ -4683,31 +4668,31 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>167</v>
+        <v>417</v>
       </c>
       <c r="C332" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="C333" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="C334" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>170</v>
+        <v>367</v>
       </c>
       <c r="C335" t="s">
         <v>26</v>
@@ -4715,15 +4700,15 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="C336" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="C337" t="s">
         <v>26</v>
@@ -4731,15 +4716,15 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="C338" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="C339" t="s">
         <v>26</v>
@@ -4747,15 +4732,15 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="C340" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="C341" t="s">
         <v>26</v>
@@ -4763,7 +4748,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="C342" t="s">
         <v>26</v>
@@ -4771,7 +4756,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>360</v>
+        <v>155</v>
       </c>
       <c r="C343" t="s">
         <v>26</v>
@@ -4779,15 +4764,15 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="C344" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>177</v>
+        <v>330</v>
       </c>
       <c r="C345" t="s">
         <v>26</v>
@@ -4795,7 +4780,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="C346" t="s">
         <v>26</v>
@@ -4803,7 +4788,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C347" t="s">
         <v>26</v>
@@ -4811,7 +4796,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="C348" t="s">
         <v>26</v>
@@ -4819,15 +4804,15 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="C349" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>362</v>
+        <v>49</v>
       </c>
       <c r="C350" t="s">
         <v>26</v>
@@ -4835,15 +4820,15 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>363</v>
+        <v>210</v>
       </c>
       <c r="C351" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>364</v>
+        <v>483</v>
       </c>
       <c r="C352" t="s">
         <v>26</v>
@@ -4851,31 +4836,31 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>365</v>
+        <v>240</v>
       </c>
       <c r="C353" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" t="s">
-        <v>366</v>
+      <c r="A354" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="C354" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="355" spans="1:3">
-      <c r="A355" t="s">
-        <v>182</v>
+      <c r="A355" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="C355" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="356" spans="1:3">
-      <c r="A356" t="s">
-        <v>367</v>
+      <c r="A356" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C356" t="s">
         <v>26</v>
@@ -4883,7 +4868,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>368</v>
+        <v>498</v>
       </c>
       <c r="C357" t="s">
         <v>26</v>
@@ -4891,15 +4876,15 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>369</v>
+        <v>258</v>
       </c>
       <c r="C358" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>370</v>
+        <v>499</v>
       </c>
       <c r="C359" t="s">
         <v>26</v>
@@ -4907,15 +4892,15 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="C360" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C361" t="s">
         <v>26</v>
@@ -4923,7 +4908,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>373</v>
+        <v>136</v>
       </c>
       <c r="C362" t="s">
         <v>26</v>
@@ -4931,7 +4916,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>374</v>
+        <v>269</v>
       </c>
       <c r="C363" t="s">
         <v>26</v>
@@ -4939,111 +4924,111 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>183</v>
+        <v>268</v>
       </c>
       <c r="C364" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>375</v>
+        <v>267</v>
       </c>
       <c r="C365" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>376</v>
+        <v>25</v>
       </c>
       <c r="C366" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="C367" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="C368" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="369" spans="1:3">
-      <c r="A369" s="2" t="s">
-        <v>379</v>
+      <c r="A369" t="s">
+        <v>337</v>
       </c>
       <c r="C369" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="C370" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="C371" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>185</v>
+        <v>369</v>
       </c>
       <c r="C372" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>186</v>
+        <v>339</v>
       </c>
       <c r="C373" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>381</v>
+        <v>165</v>
       </c>
       <c r="C374" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>382</v>
+        <v>249</v>
       </c>
       <c r="C375" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>383</v>
+        <v>58</v>
       </c>
       <c r="C376" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>384</v>
+        <v>59</v>
       </c>
       <c r="C377" t="s">
         <v>31</v>
@@ -5051,7 +5036,7 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>385</v>
+        <v>110</v>
       </c>
       <c r="C378" t="s">
         <v>26</v>
@@ -5059,55 +5044,58 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>386</v>
+        <v>500</v>
       </c>
       <c r="C379" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="380" spans="1:3">
-      <c r="A380" s="2" t="s">
-        <v>387</v>
+      <c r="A380" t="s">
+        <v>340</v>
       </c>
       <c r="C380" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="381" spans="1:3">
-      <c r="A381" s="2" t="s">
-        <v>388</v>
+      <c r="A381" t="s">
+        <v>501</v>
       </c>
       <c r="C381" t="s">
-        <v>524</v>
+        <v>26</v>
       </c>
     </row>
     <row r="382" spans="1:3">
-      <c r="A382" s="2" t="s">
-        <v>389</v>
+      <c r="A382" t="s">
+        <v>228</v>
       </c>
       <c r="C382" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="383" spans="1:3">
-      <c r="A383" s="2" t="s">
-        <v>390</v>
+      <c r="A383" t="s">
+        <v>112</v>
       </c>
       <c r="C383" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="384" spans="1:3">
-      <c r="A384" s="2" t="s">
-        <v>391</v>
+      <c r="A384" t="s">
+        <v>23</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
       </c>
       <c r="C384" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>187</v>
+        <v>426</v>
       </c>
       <c r="C385" t="s">
         <v>31</v>
@@ -5115,47 +5103,47 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="C386" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>392</v>
+        <v>154</v>
       </c>
       <c r="C387" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="C388" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>394</v>
+        <v>211</v>
       </c>
       <c r="C389" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="C390" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="C391" t="s">
         <v>31</v>
@@ -5163,39 +5151,39 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>397</v>
+        <v>42</v>
       </c>
       <c r="C392" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>398</v>
+        <v>212</v>
       </c>
       <c r="C393" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>399</v>
+        <v>5</v>
       </c>
       <c r="C394" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>400</v>
+        <v>213</v>
       </c>
       <c r="C395" t="s">
-        <v>31</v>
+        <v>524</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="C396" t="s">
         <v>31</v>
@@ -5203,7 +5191,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="C397" t="s">
         <v>31</v>
@@ -5211,55 +5199,55 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="C398" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>404</v>
+        <v>344</v>
       </c>
       <c r="C399" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>405</v>
+        <v>345</v>
       </c>
       <c r="C400" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>406</v>
+        <v>346</v>
       </c>
       <c r="C401" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>407</v>
+        <v>347</v>
       </c>
       <c r="C402" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="C403" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C404" t="s">
         <v>31</v>
@@ -5267,55 +5255,55 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>410</v>
+        <v>348</v>
       </c>
       <c r="C405" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>411</v>
+        <v>166</v>
       </c>
       <c r="C406" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>74</v>
+        <v>430</v>
       </c>
       <c r="C407" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>412</v>
+        <v>159</v>
       </c>
       <c r="C408" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>413</v>
+        <v>214</v>
       </c>
       <c r="C409" t="s">
-        <v>31</v>
+        <v>524</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>414</v>
+        <v>481</v>
       </c>
       <c r="C410" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C411" t="s">
         <v>31</v>
@@ -5323,39 +5311,39 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>416</v>
+        <v>85</v>
       </c>
       <c r="C412" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>417</v>
+        <v>167</v>
       </c>
       <c r="C413" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>418</v>
+        <v>168</v>
       </c>
       <c r="C414" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>419</v>
+        <v>515</v>
       </c>
       <c r="C415" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C416" t="s">
         <v>31</v>
@@ -5363,47 +5351,47 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="C417" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>422</v>
+        <v>516</v>
       </c>
       <c r="C418" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>423</v>
+        <v>512</v>
       </c>
       <c r="C419" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="C420" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="C421" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
       <c r="C422" t="s">
         <v>31</v>
@@ -5411,71 +5399,71 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>427</v>
+        <v>143</v>
       </c>
       <c r="C423" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>428</v>
+        <v>143</v>
       </c>
       <c r="C424" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>429</v>
+        <v>180</v>
       </c>
       <c r="C425" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>430</v>
+        <v>175</v>
       </c>
       <c r="C426" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>431</v>
+        <v>161</v>
       </c>
       <c r="C427" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>432</v>
+        <v>91</v>
       </c>
       <c r="C428" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>433</v>
+        <v>366</v>
       </c>
       <c r="C429" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>434</v>
+        <v>504</v>
       </c>
       <c r="C430" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C431" t="s">
         <v>31</v>
@@ -5483,39 +5471,39 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>436</v>
+        <v>351</v>
       </c>
       <c r="C432" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>437</v>
+        <v>6</v>
       </c>
       <c r="C433" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C434" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="C435" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>440</v>
+        <v>52</v>
       </c>
       <c r="C436" t="s">
         <v>31</v>
@@ -5523,31 +5511,31 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>441</v>
+        <v>520</v>
       </c>
       <c r="C437" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>442</v>
+        <v>521</v>
       </c>
       <c r="C438" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>443</v>
+        <v>519</v>
       </c>
       <c r="C439" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>444</v>
+        <v>188</v>
       </c>
       <c r="C440" t="s">
         <v>31</v>
@@ -5555,71 +5543,71 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>445</v>
+        <v>241</v>
       </c>
       <c r="C441" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
-        <v>189</v>
+        <v>517</v>
       </c>
       <c r="C442" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" t="s">
-        <v>446</v>
+        <v>229</v>
       </c>
       <c r="C443" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="C444" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>448</v>
+        <v>72</v>
       </c>
       <c r="C445" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>449</v>
+        <v>242</v>
       </c>
       <c r="C446" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="C447" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C448" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="C449" t="s">
         <v>26</v>
@@ -5627,55 +5615,55 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C450" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="s">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="C451" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="C452" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>451</v>
+        <v>33</v>
       </c>
       <c r="C453" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>452</v>
+        <v>32</v>
       </c>
       <c r="C454" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>453</v>
+        <v>55</v>
       </c>
       <c r="C455" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>454</v>
+        <v>56</v>
       </c>
       <c r="C456" t="s">
         <v>26</v>
@@ -5683,7 +5671,7 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="C457" t="s">
         <v>26</v>
@@ -5691,31 +5679,31 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" t="s">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="C458" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" t="s">
-        <v>457</v>
+        <v>402</v>
       </c>
       <c r="C459" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>458</v>
+        <v>125</v>
       </c>
       <c r="C460" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>459</v>
+        <v>243</v>
       </c>
       <c r="C461" t="s">
         <v>26</v>
@@ -5723,15 +5711,15 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>460</v>
+        <v>244</v>
       </c>
       <c r="C462" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>461</v>
+        <v>27</v>
       </c>
       <c r="C463" t="s">
         <v>26</v>
@@ -5739,15 +5727,15 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>462</v>
+        <v>185</v>
       </c>
       <c r="C464" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" t="s">
-        <v>463</v>
+        <v>508</v>
       </c>
       <c r="C465" t="s">
         <v>26</v>
@@ -5755,7 +5743,7 @@
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>464</v>
+        <v>259</v>
       </c>
       <c r="C466" t="s">
         <v>26</v>
@@ -5763,7 +5751,7 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>465</v>
+        <v>169</v>
       </c>
       <c r="C467" t="s">
         <v>26</v>
@@ -5771,15 +5759,15 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" t="s">
-        <v>466</v>
+        <v>106</v>
       </c>
       <c r="C468" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="C469" t="s">
         <v>26</v>
@@ -5787,39 +5775,39 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>468</v>
+        <v>227</v>
       </c>
       <c r="C470" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>469</v>
+        <v>421</v>
       </c>
       <c r="C471" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" t="s">
-        <v>470</v>
+        <v>404</v>
       </c>
       <c r="C472" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="C473" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" t="s">
-        <v>472</v>
+        <v>153</v>
       </c>
       <c r="C474" t="s">
         <v>26</v>
@@ -5827,15 +5815,15 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>473</v>
+        <v>422</v>
       </c>
       <c r="C475" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" t="s">
-        <v>474</v>
+        <v>181</v>
       </c>
       <c r="C476" t="s">
         <v>26</v>
@@ -5843,7 +5831,7 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>475</v>
+        <v>170</v>
       </c>
       <c r="C477" t="s">
         <v>26</v>
@@ -5851,63 +5839,63 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" t="s">
-        <v>476</v>
+        <v>405</v>
       </c>
       <c r="C478" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" t="s">
-        <v>477</v>
+        <v>406</v>
       </c>
       <c r="C479" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>364</v>
+        <v>65</v>
       </c>
       <c r="C480" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>478</v>
+        <v>66</v>
       </c>
       <c r="C481" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>479</v>
+        <v>67</v>
       </c>
       <c r="C482" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>480</v>
+        <v>68</v>
       </c>
       <c r="C483" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>481</v>
+        <v>69</v>
       </c>
       <c r="C484" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>482</v>
+        <v>352</v>
       </c>
       <c r="C485" t="s">
         <v>26</v>
@@ -5915,7 +5903,7 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>483</v>
+        <v>509</v>
       </c>
       <c r="C486" t="s">
         <v>26</v>
@@ -5923,7 +5911,7 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>484</v>
+        <v>176</v>
       </c>
       <c r="C487" t="s">
         <v>26</v>
@@ -5931,7 +5919,7 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="C488" t="s">
         <v>26</v>
@@ -5939,7 +5927,7 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>486</v>
+        <v>361</v>
       </c>
       <c r="C489" t="s">
         <v>26</v>
@@ -5947,7 +5935,7 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
-        <v>487</v>
+        <v>361</v>
       </c>
       <c r="C490" t="s">
         <v>26</v>
@@ -5955,7 +5943,7 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" t="s">
-        <v>488</v>
+        <v>139</v>
       </c>
       <c r="C491" t="s">
         <v>26</v>
@@ -5963,31 +5951,31 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>489</v>
+        <v>358</v>
       </c>
       <c r="C492" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="C493" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>491</v>
+        <v>444</v>
       </c>
       <c r="C494" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>492</v>
+        <v>353</v>
       </c>
       <c r="C495" t="s">
         <v>26</v>
@@ -5995,7 +5983,7 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>493</v>
+        <v>354</v>
       </c>
       <c r="C496" t="s">
         <v>26</v>
@@ -6003,7 +5991,7 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>494</v>
+        <v>355</v>
       </c>
       <c r="C497" t="s">
         <v>26</v>
@@ -6011,47 +5999,47 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>495</v>
+        <v>445</v>
       </c>
       <c r="C498" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="C499" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="500" spans="1:3">
-      <c r="A500" t="s">
-        <v>497</v>
+      <c r="A500" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="C500" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>498</v>
+        <v>393</v>
       </c>
       <c r="C501" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>499</v>
+        <v>64</v>
       </c>
       <c r="C502" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="C503" t="s">
         <v>26</v>
@@ -6059,7 +6047,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>501</v>
+        <v>50</v>
       </c>
       <c r="C504" t="s">
         <v>26</v>
@@ -6067,55 +6055,55 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>502</v>
+        <v>126</v>
       </c>
       <c r="C505" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>503</v>
+        <v>7</v>
       </c>
       <c r="C506" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" t="s">
-        <v>504</v>
+        <v>8</v>
       </c>
       <c r="C507" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" t="s">
-        <v>505</v>
+        <v>9</v>
       </c>
       <c r="C508" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" t="s">
-        <v>506</v>
+        <v>10</v>
       </c>
       <c r="C509" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" t="s">
-        <v>507</v>
+        <v>215</v>
       </c>
       <c r="C510" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" t="s">
-        <v>508</v>
+        <v>386</v>
       </c>
       <c r="C511" t="s">
         <v>26</v>
@@ -6123,15 +6111,15 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" t="s">
-        <v>509</v>
+        <v>113</v>
       </c>
       <c r="C512" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C513" t="s">
         <v>26</v>
@@ -6139,7 +6127,7 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514" t="s">
-        <v>361</v>
+        <v>489</v>
       </c>
       <c r="C514" t="s">
         <v>26</v>
@@ -6147,7 +6135,7 @@
     </row>
     <row r="515" spans="1:3">
       <c r="A515" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="C515" t="s">
         <v>26</v>
@@ -6155,7 +6143,7 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516" t="s">
-        <v>195</v>
+        <v>490</v>
       </c>
       <c r="C516" t="s">
         <v>26</v>
@@ -6163,7 +6151,7 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="C517" t="s">
         <v>26</v>
@@ -6171,7 +6159,7 @@
     </row>
     <row r="518" spans="1:3">
       <c r="A518" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="C518" t="s">
         <v>26</v>
@@ -6179,15 +6167,15 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519" t="s">
-        <v>514</v>
+        <v>114</v>
       </c>
       <c r="C519" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" t="s">
-        <v>515</v>
+        <v>115</v>
       </c>
       <c r="C520" t="s">
         <v>26</v>
@@ -6195,7 +6183,7 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521" t="s">
-        <v>516</v>
+        <v>225</v>
       </c>
       <c r="C521" t="s">
         <v>26</v>
@@ -6203,22 +6191,26 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522" t="s">
-        <v>517</v>
+        <v>274</v>
       </c>
       <c r="C522" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" t="s">
-        <v>518</v>
+        <v>239</v>
       </c>
       <c r="C523" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D523"/>
+  <autoFilter ref="A1:D523">
+    <sortState ref="A2:D523">
+      <sortCondition ref="A1:A523"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>